--- a/workshop/keynotes.xlsx
+++ b/workshop/keynotes.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\Desktop\smc8-pm-project\workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\smc8-pm-project\workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D7C20B-4563-4565-AE71-082BE8D74961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE595DB2-A987-4B2A-A943-B800AFC69DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="keynotes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
   <si>
     <t>note</t>
   </si>
@@ -101,14 +101,44 @@
     <t>string 2</t>
   </si>
   <si>
-    <t>-</t>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>static rand.</t>
+  </si>
+  <si>
+    <t>MANUALE</t>
+  </si>
+  <si>
+    <t>s. r. 2</t>
+  </si>
+  <si>
+    <t>s. r. 3</t>
+  </si>
+  <si>
+    <t>cent dev 2</t>
+  </si>
+  <si>
+    <t>cent dev 3</t>
+  </si>
+  <si>
+    <t>midi number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +160,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,12 +207,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -437,20 +504,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+      <selection activeCell="F1" sqref="F1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="13" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="7" customWidth="1"/>
+    <col min="17" max="18" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -460,26 +531,53 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
+      <c r="F1" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -490,21 +588,51 @@
         <f>_xlfn.CONCAT(A2,B2)</f>
         <v>A0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <f t="shared" ref="D2:D37" si="0">D3/POWER(2,1/12)</f>
         <v>27.499999999999936</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="8">
+        <f>D2*(0.95+(N2-0.5)*0.05)</f>
+        <v>25.937504703946772</v>
+      </c>
+      <c r="F2" s="13">
+        <v>9</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="11">
+        <f>E2</f>
+        <v>25.937504703946772</v>
+      </c>
+      <c r="I2" s="2">
+        <v>440</v>
+      </c>
+      <c r="J2" s="2">
+        <v>440</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L10" si="1">E2/D2</f>
+        <v>0.94318198923443031</v>
+      </c>
+      <c r="M2">
+        <f ca="1">RAND()</f>
+        <v>0.21759427685774924</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.36363978468860625</v>
+      </c>
+      <c r="O2">
+        <v>0.81327626718523716</v>
+      </c>
+      <c r="P2">
+        <v>0.65931322849431195</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -512,24 +640,54 @@
         <v>0</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="1">_xlfn.CONCAT(A3,B3)</f>
+        <f t="shared" ref="C3:C66" si="2">_xlfn.CONCAT(A3,B3)</f>
         <v>A#0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <f t="shared" si="0"/>
         <v>29.135235094880553</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E10" si="3">D3*(0.95+(N3-0.5)*0.05)</f>
+        <v>27.175206999246271</v>
+      </c>
+      <c r="F3" s="13">
+        <v>10</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H66" si="4">E3</f>
+        <v>27.175206999246271</v>
+      </c>
+      <c r="I3" s="2">
+        <v>440</v>
+      </c>
+      <c r="J3" s="2">
+        <v>440</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93272653921441373</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" ca="1" si="5">RAND()</f>
+        <v>0.80070322324126808</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.15453078428827749</v>
+      </c>
+      <c r="O3">
+        <v>0.9675135000259748</v>
+      </c>
+      <c r="P3">
+        <v>0.21381114536068957</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -537,24 +695,54 @@
         <v>0</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>30.867706328507687</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="8">
+        <f t="shared" si="3"/>
+        <v>29.559723155128818</v>
+      </c>
+      <c r="F4" s="13">
+        <v>11</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="11">
+        <f t="shared" si="4"/>
+        <v>29.559723155128818</v>
+      </c>
+      <c r="I4" s="2">
+        <v>440</v>
+      </c>
+      <c r="J4" s="2">
+        <v>440</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9576261624540956</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.42610748662676401</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.65252324908191239</v>
+      </c>
+      <c r="O4">
+        <v>0.99821846867849973</v>
+      </c>
+      <c r="P4">
+        <v>3.7883796946311943E-2</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -562,24 +750,54 @@
         <v>1</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>32.703195662574757</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="8">
+        <f t="shared" si="3"/>
+        <v>31.592944433441076</v>
+      </c>
+      <c r="F5" s="13">
+        <v>12</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="11">
+        <f t="shared" si="4"/>
+        <v>31.592944433441076</v>
+      </c>
+      <c r="I5" s="2">
+        <v>440</v>
+      </c>
+      <c r="J5" s="2">
+        <v>440</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96605068077783474</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.48301442012791218</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.82101361555669505</v>
+      </c>
+      <c r="O5">
+        <v>0.16356704408325629</v>
+      </c>
+      <c r="P5">
+        <v>3.9391521460983236E-2</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -587,24 +805,54 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C#1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>34.647828872108938</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="8">
+        <f t="shared" si="3"/>
+        <v>33.188593086260163</v>
+      </c>
+      <c r="F6" s="13">
+        <v>13</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="11">
+        <f t="shared" si="4"/>
+        <v>33.188593086260163</v>
+      </c>
+      <c r="I6" s="2">
+        <v>440</v>
+      </c>
+      <c r="J6" s="2">
+        <v>440</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95788377415407289</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.27087291536011382</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.6576754830814584</v>
+      </c>
+      <c r="O6">
+        <v>0.46666678517286075</v>
+      </c>
+      <c r="P6">
+        <v>0.11679567548121794</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -612,24 +860,54 @@
         <v>1</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>36.708095989675869</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="8">
+        <f t="shared" si="3"/>
+        <v>35.268560830977428</v>
+      </c>
+      <c r="F7" s="13">
+        <v>14</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="11">
+        <f t="shared" si="4"/>
+        <v>35.268560830977428</v>
+      </c>
+      <c r="I7" s="2">
+        <v>440</v>
+      </c>
+      <c r="J7" s="2">
+        <v>440</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96078425971471504</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.21914999360922105</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.71568519429429844</v>
+      </c>
+      <c r="O7">
+        <v>0.94925025889775583</v>
+      </c>
+      <c r="P7">
+        <v>0.98470003936337525</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -637,24 +915,54 @@
         <v>1</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D#1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>38.890872965260037</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="8">
+        <f t="shared" si="3"/>
+        <v>36.076826679212928</v>
+      </c>
+      <c r="F8" s="13">
+        <v>15</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="11">
+        <f t="shared" si="4"/>
+        <v>36.076826679212928</v>
+      </c>
+      <c r="I8" s="2">
+        <v>440</v>
+      </c>
+      <c r="J8" s="2">
+        <v>440</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92764250140230065</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.54705515645745284</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5.2850028046014241E-2</v>
+      </c>
+      <c r="O8">
+        <v>0.51088548842636616</v>
+      </c>
+      <c r="P8">
+        <v>0.32967621943623859</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -662,24 +970,54 @@
         <v>1</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>E1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>41.203444614108662</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="8">
+        <f t="shared" si="3"/>
+        <v>38.552184451496792</v>
+      </c>
+      <c r="F9" s="13">
+        <v>16</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="11">
+        <f t="shared" si="4"/>
+        <v>38.552184451496792</v>
+      </c>
+      <c r="I9" s="2">
+        <v>440</v>
+      </c>
+      <c r="J9" s="2">
+        <v>440</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9356544049304063</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.1692000365542787E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.21308809860812472</v>
+      </c>
+      <c r="O9">
+        <v>0.18211828530874763</v>
+      </c>
+      <c r="P9">
+        <v>0.91404208473801773</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -687,24 +1025,54 @@
         <v>1</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>43.6535289291254</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="8">
+        <f t="shared" si="3"/>
+        <v>42.184784497380072</v>
+      </c>
+      <c r="F10" s="13">
+        <v>17</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="11">
+        <f t="shared" si="4"/>
+        <v>42.184784497380072</v>
+      </c>
+      <c r="I10" s="2">
+        <v>440</v>
+      </c>
+      <c r="J10" s="2">
+        <v>440</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96635450860960315</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.0231723437280253E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.82709017219206349</v>
+      </c>
+      <c r="O10">
+        <v>0.92564980592148061</v>
+      </c>
+      <c r="P10">
+        <v>0.40390584375727312</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -712,24 +1080,53 @@
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F#1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>46.249302838954215</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="F11" s="13">
+        <v>18</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="11">
+        <f t="shared" si="4"/>
+        <v>44.3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>440</v>
+      </c>
+      <c r="J11" s="2">
+        <v>440</v>
+      </c>
+      <c r="L11">
+        <f>E11/D11</f>
+        <v>0.95785227626582981</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.2081526364796895E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.31858018787723441</v>
+      </c>
+      <c r="O11">
+        <v>0.29627265263847158</v>
+      </c>
+      <c r="P11">
+        <v>0.35923475484173395</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -737,27 +1134,53 @@
         <v>1</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>48.999429497718573</v>
       </c>
-      <c r="E12">
-        <v>51.7</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="7">
+        <v>45</v>
+      </c>
+      <c r="F12" s="13">
+        <v>19</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="11">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="I12" s="2">
+        <v>440</v>
+      </c>
+      <c r="J12" s="2">
+        <v>440</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L75" si="6">E12/D12</f>
+        <v>0.91837803952585229</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.54477229114106385</v>
+      </c>
+      <c r="N12" s="7">
+        <v>4.9441714832939354E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.96026804361875862</v>
+      </c>
+      <c r="P12">
+        <v>0.39691226312336558</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -765,27 +1188,53 @@
         <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G#1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>51.913087197493049</v>
       </c>
-      <c r="E13">
-        <v>54.7</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="7">
+        <v>51.7</v>
+      </c>
+      <c r="F13" s="13">
+        <v>20</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>51.7</v>
+      </c>
+      <c r="I13" s="2">
+        <v>440</v>
+      </c>
+      <c r="J13" s="2">
+        <v>440</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>0.99589530869773946</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.31408475820645909</v>
+      </c>
+      <c r="N13" s="7">
+        <v>9.0789275175559458E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.72328614384169432</v>
+      </c>
+      <c r="P13">
+        <v>0.23695958681132301</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -793,27 +1242,53 @@
         <v>1</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>54.999999999999901</v>
       </c>
-      <c r="E14">
-        <v>56.7</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="7">
+        <v>54.7</v>
+      </c>
+      <c r="F14" s="13">
+        <v>21</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>54.7</v>
+      </c>
+      <c r="I14" s="2">
+        <v>440</v>
+      </c>
+      <c r="J14" s="2">
+        <v>440</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>0.9945454545454564</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.65632550071681184</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0.31354481400876677</v>
+      </c>
+      <c r="O14">
+        <v>0.8560503164385117</v>
+      </c>
+      <c r="P14">
+        <v>0.44156491250941621</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -821,24 +1296,57 @@
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A#1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>58.270470189761134</v>
       </c>
-      <c r="E15">
-        <v>60.6</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="F15" s="13">
+        <v>22</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="11">
+        <f t="shared" si="4"/>
+        <v>56.7</v>
+      </c>
+      <c r="I15" s="11">
+        <f>H15*POWER(2,Q15/1200)</f>
+        <v>56.124869587541866</v>
+      </c>
+      <c r="J15" s="2">
+        <v>440</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>0.97304860961912942</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.64727981665544398</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.20618208392437076</v>
+      </c>
+      <c r="O15">
+        <v>0.76502570891627752</v>
+      </c>
+      <c r="P15">
+        <v>0.30041515417728826</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" ref="Q15:Q66" si="7">IF(O15&lt;0.5,1,-1)*(10+10*O15)</f>
+        <v>-17.650257089162775</v>
+      </c>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -846,24 +1354,57 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>61.735412657015402</v>
       </c>
-      <c r="E16">
-        <v>64</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="7">
+        <v>60.6</v>
+      </c>
+      <c r="F16" s="13">
+        <v>23</v>
+      </c>
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="11">
+        <f t="shared" si="4"/>
+        <v>60.6</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" ref="I16:I79" si="8">H16*POWER(2,Q16/1200)</f>
+        <v>60.033137169348535</v>
+      </c>
+      <c r="J16" s="2">
+        <v>440</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>0.98160840580553932</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1797467761706929</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.39953080131459351</v>
+      </c>
+      <c r="O16">
+        <v>0.62704789080491108</v>
+      </c>
+      <c r="P16">
+        <v>0.43893441906221131</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="7"/>
+        <v>-16.27047890804911</v>
+      </c>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -871,24 +1412,57 @@
         <v>2</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="10">
         <f t="shared" si="0"/>
         <v>65.406391325149542</v>
       </c>
-      <c r="E17">
-        <v>67.8</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="7">
+        <v>64</v>
+      </c>
+      <c r="F17" s="13">
+        <v>24</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="11">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="8"/>
+        <v>64.450556190651554</v>
+      </c>
+      <c r="J17" s="2">
+        <v>440</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>0.97849764684068774</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.54217069127992767</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.40484968853932757</v>
+      </c>
+      <c r="O17">
+        <v>0.21450843093938954</v>
+      </c>
+      <c r="P17">
+        <v>0.18228159886303019</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="7"/>
+        <v>12.145084309393894</v>
+      </c>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -896,24 +1470,57 @@
         <v>2</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C#2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="10">
         <f t="shared" si="0"/>
         <v>69.295657744217905</v>
       </c>
-      <c r="E18">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="7">
+        <v>67.8</v>
+      </c>
+      <c r="F18" s="13">
+        <v>25</v>
+      </c>
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="11">
+        <f t="shared" si="4"/>
+        <v>67.8</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="8"/>
+        <v>68.241166975765381</v>
+      </c>
+      <c r="J18" s="2">
+        <v>440</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>0.97841628475858278</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.49709600223503925</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0.33741213629515332</v>
+      </c>
+      <c r="O18">
+        <v>0.12284536232686882</v>
+      </c>
+      <c r="P18">
+        <v>2.5120587454022902E-2</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" si="7"/>
+        <v>11.228453623268688</v>
+      </c>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -921,24 +1528,57 @@
         <v>2</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>73.416191979351765</v>
       </c>
-      <c r="E19">
-        <v>75.8</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="7">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="F19" s="13">
+        <v>26</v>
+      </c>
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="11">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="8"/>
+        <v>72.18460247346313</v>
+      </c>
+      <c r="J19" s="2">
+        <v>440</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>0.97526169731245971</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.48321494814614085</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.27644326351109294</v>
+      </c>
+      <c r="O19">
+        <v>0.40778534941592681</v>
+      </c>
+      <c r="P19">
+        <v>0.24042581499649318</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="7"/>
+        <v>14.077853494159267</v>
+      </c>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -946,24 +1586,57 @@
         <v>2</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D#2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="10">
         <f t="shared" si="0"/>
         <v>77.781745930520103</v>
       </c>
-      <c r="E20">
-        <v>80.5</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="F20" s="13">
+        <v>27</v>
+      </c>
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="11">
+        <f t="shared" si="4"/>
+        <v>75.8</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="8"/>
+        <v>76.398728691793409</v>
+      </c>
+      <c r="J20" s="2">
+        <v>440</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>0.97452170934437066</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.8298033768729397</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.95355225691916257</v>
+      </c>
+      <c r="O20">
+        <v>0.36209395867212324</v>
+      </c>
+      <c r="P20">
+        <v>0.50705795907749507</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="7"/>
+        <v>13.620939586721232</v>
+      </c>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -971,24 +1644,57 @@
         <v>2</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>E2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
         <v>82.406889228217352</v>
       </c>
-      <c r="E21">
-        <v>85</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="7">
+        <v>80.5</v>
+      </c>
+      <c r="F21" s="13">
+        <v>28</v>
+      </c>
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="11">
+        <f t="shared" si="4"/>
+        <v>80.5</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="8"/>
+        <v>79.780024541997975</v>
+      </c>
+      <c r="J21" s="2">
+        <v>440</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>0.97686007509716311</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.66000007628568658</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.49780031450639206</v>
+      </c>
+      <c r="O21">
+        <v>0.55534591988638538</v>
+      </c>
+      <c r="P21">
+        <v>0.654938280153054</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="7"/>
+        <v>-15.553459198863854</v>
+      </c>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -996,24 +1702,57 @@
         <v>2</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
         <v>87.307057858250843</v>
       </c>
-      <c r="E22">
-        <v>90.4</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="7">
+        <v>85</v>
+      </c>
+      <c r="F22" s="13">
+        <v>29</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="11">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="8"/>
+        <v>85.620067026339342</v>
+      </c>
+      <c r="J22" s="2">
+        <v>440</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>0.97357535673694884</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.48504906969220218</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.99777944707987265</v>
+      </c>
+      <c r="O22">
+        <v>0.2583348411602473</v>
+      </c>
+      <c r="P22">
+        <v>7.2494655820763865E-2</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="7"/>
+        <v>12.583348411602472</v>
+      </c>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1021,24 +1760,57 @@
         <v>2</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F#2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="10">
         <f t="shared" si="0"/>
         <v>92.498605677908472</v>
       </c>
-      <c r="E23">
-        <v>95.6</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="7">
+        <v>90.4</v>
+      </c>
+      <c r="F23" s="13">
+        <v>30</v>
+      </c>
+      <c r="G23">
         <v>2</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="11">
+        <f t="shared" si="4"/>
+        <v>90.4</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="8"/>
+        <v>91.084212679181661</v>
+      </c>
+      <c r="J23" s="2">
+        <v>440</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>0.97731202905678305</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.58357644330838987</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.34133183575900727</v>
+      </c>
+      <c r="O23">
+        <v>0.30538946801511957</v>
+      </c>
+      <c r="P23">
+        <v>0.97362831083026347</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="7"/>
+        <v>13.053894680151195</v>
+      </c>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1046,24 +1818,57 @@
         <v>2</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="10">
         <f t="shared" si="0"/>
         <v>97.998858995437189</v>
       </c>
-      <c r="E24">
-        <v>101.5</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="7">
+        <v>95.6</v>
+      </c>
+      <c r="F24" s="13">
+        <v>31</v>
+      </c>
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="11">
+        <f t="shared" si="4"/>
+        <v>95.6</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="8"/>
+        <v>96.20949850767343</v>
+      </c>
+      <c r="J24" s="2">
+        <v>440</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>0.97552156198523821</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.21152602070343141</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0.53002196191416406</v>
+      </c>
+      <c r="O24">
+        <v>0.10024595139897474</v>
+      </c>
+      <c r="P24">
+        <v>0.75605586713315631</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="7"/>
+        <v>11.002459513989747</v>
+      </c>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1071,24 +1876,57 @@
         <v>2</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G#2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>103.82617439498615</v>
       </c>
-      <c r="E25">
-        <v>107.6</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="7">
+        <v>101.5</v>
+      </c>
+      <c r="F25" s="13">
+        <v>32</v>
+      </c>
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="11">
+        <f t="shared" si="4"/>
+        <v>101.5</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="8"/>
+        <v>100.60175777687121</v>
+      </c>
+      <c r="J25" s="2">
+        <v>440</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>0.97759549161335091</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.25338054335047955</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.59781950223764457</v>
+      </c>
+      <c r="O25">
+        <v>0.53890572513852375</v>
+      </c>
+      <c r="P25">
+        <v>0.16756247344892694</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="7"/>
+        <v>-15.389057251385237</v>
+      </c>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1096,24 +1934,57 @@
         <v>2</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="10">
         <f t="shared" si="0"/>
         <v>109.99999999999987</v>
       </c>
-      <c r="E26">
-        <v>113.744</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="7">
+        <v>107.6</v>
+      </c>
+      <c r="F26" s="13">
+        <v>33</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="11">
+        <f t="shared" si="4"/>
+        <v>107.6</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="8"/>
+        <v>106.37625464682117</v>
+      </c>
+      <c r="J26" s="2">
+        <v>440</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>0.97818181818181926</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.64275185127246992</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0.35425136900246146</v>
+      </c>
+      <c r="O26">
+        <v>0.98023161483530852</v>
+      </c>
+      <c r="P26">
+        <v>0.34845729848932128</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="7"/>
+        <v>-19.802316148353086</v>
+      </c>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1121,24 +1992,57 @@
         <v>2</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A#2</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="10">
         <f t="shared" si="0"/>
         <v>116.54094037952235</v>
       </c>
-      <c r="E27">
-        <v>120.6</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="7">
+        <v>113.744</v>
+      </c>
+      <c r="F27" s="13">
+        <v>34</v>
+      </c>
+      <c r="G27">
         <v>2</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="11">
+        <f t="shared" si="4"/>
+        <v>113.744</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="8"/>
+        <v>112.60453907226911</v>
+      </c>
+      <c r="J27" s="2">
+        <v>440</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>0.9760003620151515</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.92615542486428348</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0.87052133070268678</v>
+      </c>
+      <c r="O27">
+        <v>0.74305540290955763</v>
+      </c>
+      <c r="P27">
+        <v>0.5011488476398267</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="7"/>
+        <v>-17.430554029095575</v>
+      </c>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1146,24 +2050,57 @@
         <v>2</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B2</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="10">
         <f t="shared" si="0"/>
         <v>123.4708253140309</v>
       </c>
-      <c r="E28">
-        <v>127.7</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="7">
+        <v>120.6</v>
+      </c>
+      <c r="F28" s="13">
+        <v>35</v>
+      </c>
+      <c r="G28">
         <v>2</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="11">
+        <f t="shared" si="4"/>
+        <v>120.6</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="8"/>
+        <v>119.25309204552359</v>
+      </c>
+      <c r="J28" s="2">
+        <v>440</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>0.97674895825204566</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.9911112259633628E-2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0.85666535883446049</v>
+      </c>
+      <c r="O28">
+        <v>0.94438804447709757</v>
+      </c>
+      <c r="P28">
+        <v>0.28652916401137352</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="7"/>
+        <v>-19.443880444770976</v>
+      </c>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1171,24 +2108,57 @@
         <v>3</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C3</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="10">
         <f t="shared" si="0"/>
         <v>130.8127826502992</v>
       </c>
-      <c r="E29">
-        <v>136</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="7">
+        <v>127.7</v>
+      </c>
+      <c r="F29" s="13">
+        <v>36</v>
+      </c>
+      <c r="G29">
         <v>2</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="11">
+        <f t="shared" si="4"/>
+        <v>127.7</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="8"/>
+        <v>128.56306187956926</v>
+      </c>
+      <c r="J29" s="2">
+        <v>440</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>0.97620429298090405</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34672000307251893</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0.40060425890931561</v>
+      </c>
+      <c r="O29">
+        <v>0.16612027551608943</v>
+      </c>
+      <c r="P29">
+        <v>0.83949817374097058</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="7"/>
+        <v>11.661202755160895</v>
+      </c>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1196,24 +2166,57 @@
         <v>3</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C#3</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="10">
         <f t="shared" si="0"/>
         <v>138.59131548843592</v>
       </c>
-      <c r="E30">
-        <v>144.1</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="7">
+        <v>136</v>
+      </c>
+      <c r="F30" s="13">
+        <v>37</v>
+      </c>
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="11">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="8"/>
+        <v>136.81578395898589</v>
+      </c>
+      <c r="J30" s="2">
+        <v>440</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>0.98130246848943325</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.28389266659700119</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0.32058727942291576</v>
+      </c>
+      <c r="O30">
+        <v>3.536324432153648E-2</v>
+      </c>
+      <c r="P30">
+        <v>0.34511628931338523</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="7"/>
+        <v>10.353632443215364</v>
+      </c>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1221,24 +2224,57 @@
         <v>3</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D3</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="10">
         <f t="shared" si="0"/>
         <v>146.83238395870364</v>
       </c>
-      <c r="E31">
-        <v>149.5</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="7">
+        <v>144.1</v>
+      </c>
+      <c r="F31" s="13">
+        <v>38</v>
+      </c>
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="11">
+        <f t="shared" si="4"/>
+        <v>144.1</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="8"/>
+        <v>145.12101241995063</v>
+      </c>
+      <c r="J31" s="2">
+        <v>440</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>0.98139113535422728</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.40215984172991903</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0.13760252597132794</v>
+      </c>
+      <c r="O31">
+        <v>0.22233083558402711</v>
+      </c>
+      <c r="P31">
+        <v>0.60322044857546187</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" si="7"/>
+        <v>12.22330835584027</v>
+      </c>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1246,21 +2282,61 @@
         <v>3</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D#3</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>155.56349186104032</v>
       </c>
-      <c r="E32">
-        <v>160</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="7">
+        <v>149.5</v>
+      </c>
+      <c r="F32" s="13">
+        <v>39</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="4"/>
+        <v>149.5</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="8"/>
+        <v>147.82674727074811</v>
+      </c>
+      <c r="J32" s="11">
+        <f>H32*POWER(2,R32/1200)</f>
+        <v>151.14984271877316</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>0.96102239806717227</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.22902437988893631</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0.11275382012540103</v>
+      </c>
+      <c r="O32">
+        <v>0.94857859624973917</v>
+      </c>
+      <c r="P32">
+        <v>0.40007919901727385</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" si="7"/>
+        <v>-19.485785962497392</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" ref="R32:R66" si="9">IF(P32&lt;0.5,1,-1)*(15+10*P32)</f>
+        <v>19.000791990172736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1268,21 +2344,61 @@
         <v>3</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>E3</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>164.81377845643482</v>
       </c>
-      <c r="E33">
-        <v>170.2</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="7">
+        <v>160</v>
+      </c>
+      <c r="F33" s="13">
+        <v>40</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="8"/>
+        <v>158.34542540941158</v>
+      </c>
+      <c r="J33" s="11">
+        <f t="shared" ref="J33:J86" si="10">H33*POWER(2,R33/1200)</f>
+        <v>157.87003662626392</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>0.97079262121457133</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.48274538088819974</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0.70878438486920547</v>
+      </c>
+      <c r="O33">
+        <v>0.79960598293799168</v>
+      </c>
+      <c r="P33">
+        <v>0.82014338023394295</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="7"/>
+        <v>-17.996059829379917</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="9"/>
+        <v>-23.20143380233943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1290,21 +2406,61 @@
         <v>3</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F3</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="10">
         <f t="shared" si="0"/>
         <v>174.6141157165018</v>
       </c>
-      <c r="E34">
-        <v>177.8</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="7">
+        <v>170.2</v>
+      </c>
+      <c r="F34" s="13">
+        <v>41</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="4"/>
+        <v>170.2</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="8"/>
+        <v>171.25160684815268</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="10"/>
+        <v>167.98422526287672</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>0.97472073950957983</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.32200256986247522</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0.61992022851264861</v>
+      </c>
+      <c r="O34">
+        <v>6.6378544707464959E-2</v>
+      </c>
+      <c r="P34">
+        <v>0.76863305634440848</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="7"/>
+        <v>10.66378544707465</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="9"/>
+        <v>-22.686330563444084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1312,21 +2468,61 @@
         <v>3</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F#3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="10">
         <f t="shared" si="0"/>
         <v>184.99721135581706</v>
       </c>
-      <c r="E35">
-        <v>190.4</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="7">
+        <v>177.8</v>
+      </c>
+      <c r="F35" s="13">
+        <v>42</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="4"/>
+        <v>177.8</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="8"/>
+        <v>175.82638810627162</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" si="10"/>
+        <v>179.84613808776169</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>0.96109556839765442</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.68283681423309806</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0.30876621929633052</v>
+      </c>
+      <c r="O35">
+        <v>0.93244605114711454</v>
+      </c>
+      <c r="P35">
+        <v>0.4809427244433907</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="7"/>
+        <v>-19.324460511471145</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="9"/>
+        <v>19.809427244433905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1334,21 +2530,61 @@
         <v>3</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="10">
         <f t="shared" si="0"/>
         <v>195.99771799087449</v>
       </c>
-      <c r="E36">
-        <v>200.8</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="7">
+        <v>190.4</v>
+      </c>
+      <c r="F36" s="13">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="4"/>
+        <v>190.4</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="8"/>
+        <v>188.44835735610886</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="10"/>
+        <v>187.86480547676132</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>0.9714398818095672</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.72686241666615603</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0.63337685198477589</v>
+      </c>
+      <c r="O36">
+        <v>0.78371109184919163</v>
+      </c>
+      <c r="P36">
+        <v>0.82063926364763007</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="7"/>
+        <v>-17.837110918491916</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="9"/>
+        <v>-23.206392636476302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1356,21 +2592,61 @@
         <v>3</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G#3</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>207.65234878997242</v>
       </c>
-      <c r="E37">
-        <v>213.3</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="7">
+        <v>200.8</v>
+      </c>
+      <c r="F37" s="13">
+        <v>44</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="4"/>
+        <v>200.8</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="8"/>
+        <v>198.84876917738359</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="10"/>
+        <v>203.09828414246306</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>0.96700086066975754</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.21676646312889114</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0.58308396017811348</v>
+      </c>
+      <c r="O37">
+        <v>0.69051644339464446</v>
+      </c>
+      <c r="P37">
+        <v>0.47025383015105315</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="7"/>
+        <v>-16.905164433946446</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="9"/>
+        <v>19.702538301510533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1378,21 +2654,61 @@
         <v>3</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A3</v>
       </c>
-      <c r="D38">
-        <f t="shared" ref="D38:D48" si="2">D39/POWER(2,1/12)</f>
+      <c r="D38" s="10">
+        <f t="shared" ref="D38:D48" si="11">D39/POWER(2,1/12)</f>
         <v>219.99999999999986</v>
       </c>
-      <c r="E38">
-        <v>227.5</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="7">
+        <v>213.3</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="4"/>
+        <v>213.3</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="8"/>
+        <v>215.11109763820377</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="10"/>
+        <v>215.17986627762207</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.96954545454545527</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.52527612647458322</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0.45021574197405823</v>
+      </c>
+      <c r="O38">
+        <v>0.46375880236843336</v>
+      </c>
+      <c r="P38">
+        <v>1.9095595871653659E-2</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="7"/>
+        <v>14.637588023684334</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="9"/>
+        <v>15.190955958716536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1400,21 +2716,61 @@
         <v>3</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A#3</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
+      <c r="D39" s="10">
+        <f t="shared" si="11"/>
         <v>233.08188075904482</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>227.5</v>
       </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="13">
+        <v>46</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="4"/>
+        <v>227.5</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="8"/>
+        <v>225.09024520802035</v>
+      </c>
+      <c r="J39" s="11">
+        <f t="shared" si="10"/>
+        <v>229.54213243595618</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>0.97605184606856998</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.24302784521464615</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0.2205184932163673</v>
+      </c>
+      <c r="O39">
+        <v>0.84356115183090896</v>
+      </c>
+      <c r="P39">
+        <v>4.7092700036374446E-2</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="7"/>
+        <v>-18.435611518309088</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="9"/>
+        <v>15.470927000363744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1422,21 +2778,61 @@
         <v>3</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B3</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
+      <c r="D40" s="10">
+        <f t="shared" si="11"/>
         <v>246.94165062806192</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="7">
         <v>240</v>
       </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="13">
+        <v>47</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="8"/>
+        <v>237.363248430185</v>
+      </c>
+      <c r="J40" s="11">
+        <f t="shared" si="10"/>
+        <v>242.23386040929677</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>0.97188951069855245</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1996177931355686</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0.30204449462085692</v>
+      </c>
+      <c r="O40">
+        <v>0.91253957510642258</v>
+      </c>
+      <c r="P40">
+        <v>0.10393667120038452</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="7"/>
+        <v>-19.125395751064225</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="9"/>
+        <v>16.039366712003844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1444,21 +2840,61 @@
         <v>4</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C4</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
+      <c r="D41" s="10">
+        <f t="shared" si="11"/>
         <v>261.62556530059851</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <v>252.6</v>
       </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="13">
+        <v>48</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="4"/>
+        <v>252.6</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="8"/>
+        <v>254.41258590424252</v>
+      </c>
+      <c r="J41" s="11">
+        <f t="shared" si="10"/>
+        <v>249.53301693515306</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>0.96550197496858359</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.73563297522819904</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0.96960269632308016</v>
+      </c>
+      <c r="O41">
+        <v>0.23784848362369826</v>
+      </c>
+      <c r="P41">
+        <v>0.6148705066683755</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="7"/>
+        <v>12.378484836236982</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="9"/>
+        <v>-21.148705066683753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1466,21 +2902,61 @@
         <v>4</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C#4</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
+      <c r="D42" s="10">
+        <f t="shared" si="11"/>
         <v>277.18263097687196</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="7">
         <v>271.3</v>
       </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="13">
+        <v>49</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="4"/>
+        <v>271.3</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="8"/>
+        <v>273.48362359332123</v>
+      </c>
+      <c r="J42" s="11">
+        <f t="shared" si="10"/>
+        <v>267.88897376837889</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>0.97877705772493806</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.5889211263879971</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0.64894817609047195</v>
+      </c>
+      <c r="O42">
+        <v>0.38784779742694309</v>
+      </c>
+      <c r="P42">
+        <v>0.69046153468639615</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="7"/>
+        <v>13.87847797426943</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="9"/>
+        <v>-21.904615346863963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1488,21 +2964,61 @@
         <v>4</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D4</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
+      <c r="D43" s="10">
+        <f t="shared" si="11"/>
         <v>293.66476791740746</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="7">
         <v>282.3</v>
       </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="13">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="4"/>
+        <v>282.3</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="8"/>
+        <v>284.42425158453312</v>
+      </c>
+      <c r="J43" s="11">
+        <f t="shared" si="10"/>
+        <v>278.36693729532601</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>0.96130019955065305</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.48080236561476353</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0.9671384975591113</v>
+      </c>
+      <c r="O43">
+        <v>0.29784242858499166</v>
+      </c>
+      <c r="P43">
+        <v>0.92895141930515579</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" si="7"/>
+        <v>12.978424285849917</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="9"/>
+        <v>-24.289514193051559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1510,21 +3026,61 @@
         <v>4</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D#4</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
+      <c r="D44" s="10">
+        <f t="shared" si="11"/>
         <v>311.12698372208081</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="7">
         <v>298.10000000000002</v>
       </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="13">
+        <v>51</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="4"/>
+        <v>298.10000000000002</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="8"/>
+        <v>300.15848923240344</v>
+      </c>
+      <c r="J44" s="11">
+        <f t="shared" si="10"/>
+        <v>301.18054362438676</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>0.95812968850777225</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.7633790277564794E-2</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0.16728056449427242</v>
+      </c>
+      <c r="O44">
+        <v>0.19137154818931423</v>
+      </c>
+      <c r="P44">
+        <v>0.27986388629462999</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" si="7"/>
+        <v>11.913715481893142</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" si="9"/>
+        <v>17.798638862946298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1532,21 +3088,61 @@
         <v>4</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>E4</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
+      <c r="D45" s="10">
+        <f t="shared" si="11"/>
         <v>329.62755691286986</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="7">
         <v>313.7</v>
       </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="13">
+        <v>52</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="4"/>
+        <v>313.7</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="8"/>
+        <v>316.16067729140264</v>
+      </c>
+      <c r="J45" s="11">
+        <f t="shared" si="10"/>
+        <v>317.16825853516531</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>0.95168014148440871</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38953992059987053</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0.97014034368482205</v>
+      </c>
+      <c r="O45">
+        <v>0.35268961437156021</v>
+      </c>
+      <c r="P45">
+        <v>0.40354410069557245</v>
+      </c>
+      <c r="Q45" s="4">
+        <f t="shared" si="7"/>
+        <v>13.526896143715602</v>
+      </c>
+      <c r="R45" s="4">
+        <f t="shared" si="9"/>
+        <v>19.035441006955725</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1554,21 +3150,61 @@
         <v>4</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F4</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
+      <c r="D46" s="10">
+        <f t="shared" si="11"/>
         <v>349.22823143300383</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="7">
         <v>342.9</v>
       </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="13">
+        <v>53</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="4"/>
+        <v>342.9</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="8"/>
+        <v>345.7599903033344</v>
+      </c>
+      <c r="J46" s="11">
+        <f t="shared" si="10"/>
+        <v>345.98043548950159</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>0.98187938183852741</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.87290853938821289</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0.14184237276812373</v>
+      </c>
+      <c r="O46">
+        <v>0.43796390922225192</v>
+      </c>
+      <c r="P46">
+        <v>4.8306520680198917E-2</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="7"/>
+        <v>14.379639092222519</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="9"/>
+        <v>15.483065206801989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1576,21 +3212,61 @@
         <v>4</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F#4</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
+      <c r="D47" s="10">
+        <f t="shared" si="11"/>
         <v>369.99442271163434</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="7">
         <v>360.9</v>
       </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="13">
+        <v>54</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="4"/>
+        <v>360.9</v>
+      </c>
+      <c r="I47" s="11">
+        <f t="shared" si="8"/>
+        <v>357.40574962139902</v>
+      </c>
+      <c r="J47" s="11">
+        <f t="shared" si="10"/>
+        <v>356.47564669674529</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>0.97542010864655015</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.86083838775486099</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0.87369324209203869</v>
+      </c>
+      <c r="O47">
+        <v>0.68435598706794232</v>
+      </c>
+      <c r="P47">
+        <v>0.6354748344626352</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="7"/>
+        <v>-16.843559870679421</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" si="9"/>
+        <v>-21.354748344626351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1598,21 +3274,61 @@
         <v>4</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G4</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
+      <c r="D48" s="10">
+        <f t="shared" si="11"/>
         <v>391.99543598174927</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="7">
         <v>381</v>
       </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="13">
+        <v>55</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="4"/>
+        <v>381</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="8"/>
+        <v>377.35828395252526</v>
+      </c>
+      <c r="J48" s="11">
+        <f t="shared" si="10"/>
+        <v>385.34519311809277</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>0.97195009183152525</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.61368150877478844</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0.23215110927673421</v>
+      </c>
+      <c r="O48">
+        <v>0.66272629040672137</v>
+      </c>
+      <c r="P48">
+        <v>0.46324762244845508</v>
+      </c>
+      <c r="Q48" s="4">
+        <f t="shared" si="7"/>
+        <v>-16.627262904067216</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" si="9"/>
+        <v>19.632476224484549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1620,21 +3336,61 @@
         <v>4</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G#4</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="10">
         <f>D50/POWER(2,1/12)</f>
         <v>415.30469757994513</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="7">
         <v>400</v>
       </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="13">
+        <v>56</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="I49" s="11">
+        <f t="shared" si="8"/>
+        <v>396.32381555918653</v>
+      </c>
+      <c r="J49" s="11">
+        <f t="shared" si="10"/>
+        <v>394.32470011372851</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>0.96314826759935934</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.54441713376573075</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0.41140424416952115</v>
+      </c>
+      <c r="O49">
+        <v>0.59844042388589413</v>
+      </c>
+      <c r="P49">
+        <v>0.97391012602048621</v>
+      </c>
+      <c r="Q49" s="4">
+        <f t="shared" si="7"/>
+        <v>-15.984404238858941</v>
+      </c>
+      <c r="R49" s="4">
+        <f t="shared" si="9"/>
+        <v>-24.739101260204862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1642,20 +3398,60 @@
         <v>4</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A4</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="9">
         <v>440</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="7">
         <v>422.9</v>
       </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="13">
+        <v>57</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="4"/>
+        <v>422.9</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" si="8"/>
+        <v>426.14611734112231</v>
+      </c>
+      <c r="J50" s="11">
+        <f t="shared" si="10"/>
+        <v>417.78962384073805</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>0.96113636363636357</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.56051961197523403</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0.45922463930133517</v>
+      </c>
+      <c r="O50">
+        <v>0.32379528876982533</v>
+      </c>
+      <c r="P50">
+        <v>0.60478776844320814</v>
+      </c>
+      <c r="Q50" s="4">
+        <f t="shared" si="7"/>
+        <v>13.237952887698253</v>
+      </c>
+      <c r="R50" s="4">
+        <f t="shared" si="9"/>
+        <v>-21.047877684432081</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1663,21 +3459,61 @@
         <v>4</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A#4</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="10">
         <f>D50*POWER(2,1/12)</f>
         <v>466.16376151808993</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="7">
         <v>450.7</v>
       </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="13">
+        <v>58</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="4"/>
+        <v>450.7</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="8"/>
+        <v>446.23193813132514</v>
+      </c>
+      <c r="J51" s="11">
+        <f t="shared" si="10"/>
+        <v>454.6507285734495</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>0.9668276198309983</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.65148718221848223</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0.27298193365189094</v>
+      </c>
+      <c r="O51">
+        <v>0.7248409821832793</v>
+      </c>
+      <c r="P51">
+        <v>1.0945763640030526E-2</v>
+      </c>
+      <c r="Q51" s="4">
+        <f t="shared" si="7"/>
+        <v>-17.248409821832794</v>
+      </c>
+      <c r="R51" s="4">
+        <f t="shared" si="9"/>
+        <v>15.109457636400306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1685,21 +3521,61 @@
         <v>4</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B4</v>
       </c>
-      <c r="D52">
-        <f t="shared" ref="D52:D86" si="3">D51*POWER(2,1/12)</f>
+      <c r="D52" s="10">
+        <f t="shared" ref="D52:D86" si="12">D51*POWER(2,1/12)</f>
         <v>493.88330125612413</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="7">
         <v>480</v>
       </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="13">
+        <v>59</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="8"/>
+        <v>483.48797498446555</v>
+      </c>
+      <c r="J52" s="11">
+        <f t="shared" si="10"/>
+        <v>485.12442098872589</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="6"/>
+        <v>0.9718895106985519</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.32144022415323315</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0.90367281274799927</v>
+      </c>
+      <c r="O52">
+        <v>0.25347229889997436</v>
+      </c>
+      <c r="P52">
+        <v>0.3384480331190548</v>
+      </c>
+      <c r="Q52" s="4">
+        <f t="shared" si="7"/>
+        <v>12.534722988999743</v>
+      </c>
+      <c r="R52" s="4">
+        <f t="shared" si="9"/>
+        <v>18.384480331190549</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1707,21 +3583,61 @@
         <v>5</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C5</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="3"/>
+      <c r="D53" s="10">
+        <f t="shared" si="12"/>
         <v>523.25113060119736</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="7">
         <v>505.3</v>
       </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="13">
+        <v>60</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="4"/>
+        <v>505.3</v>
+      </c>
+      <c r="I53" s="11">
+        <f t="shared" si="8"/>
+        <v>508.41713276744986</v>
+      </c>
+      <c r="J53" s="11">
+        <f t="shared" si="10"/>
+        <v>510.09512376520325</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="6"/>
+        <v>0.96569308779023155</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.48874634719856203</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0.33401603606125274</v>
+      </c>
+      <c r="O53">
+        <v>6.4696100453187744E-2</v>
+      </c>
+      <c r="P53">
+        <v>0.1351355348312191</v>
+      </c>
+      <c r="Q53" s="4">
+        <f t="shared" si="7"/>
+        <v>10.646961004531878</v>
+      </c>
+      <c r="R53" s="4">
+        <f t="shared" si="9"/>
+        <v>16.35135534831219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1729,21 +3645,63 @@
         <v>5</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C#5</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="3"/>
+      <c r="D54" s="10">
+        <f t="shared" si="12"/>
         <v>554.36526195374427</v>
       </c>
-      <c r="E54">
-        <v>518.9</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="7">
+        <v>530.5</v>
+      </c>
+      <c r="F54" s="13">
+        <v>61</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="4"/>
+        <v>530.5</v>
+      </c>
+      <c r="I54" s="11">
+        <f t="shared" si="8"/>
+        <v>525.25712514455461</v>
+      </c>
+      <c r="J54" s="11">
+        <v>510.2</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="6"/>
+        <v>0.95695029326037462</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15415448002016974</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0.78782993494586073</v>
+      </c>
+      <c r="O54">
+        <v>0.71947086365782553</v>
+      </c>
+      <c r="P54">
+        <v>0.84862053810609028</v>
+      </c>
+      <c r="Q54" s="4">
+        <f t="shared" si="7"/>
+        <v>-17.194708636578255</v>
+      </c>
+      <c r="R54" s="4">
+        <f t="shared" si="9"/>
+        <v>-23.486205381060902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1751,21 +3709,61 @@
         <v>5</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D5</v>
       </c>
-      <c r="D55">
-        <f t="shared" si="3"/>
+      <c r="D55" s="10">
+        <f t="shared" si="12"/>
         <v>587.32953583481526</v>
       </c>
-      <c r="E55">
-        <v>551.72</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="7">
+        <v>551.70000000000005</v>
+      </c>
+      <c r="F55" s="13">
+        <v>62</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="4"/>
+        <v>551.70000000000005</v>
+      </c>
+      <c r="I55" s="11">
+        <f t="shared" si="8"/>
+        <v>555.7511940895854</v>
+      </c>
+      <c r="J55" s="11">
+        <f t="shared" si="10"/>
+        <v>544.76626301898523</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="6"/>
+        <v>0.93933637990098307</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.28764823460172417</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0.32262435562402192</v>
+      </c>
+      <c r="O55">
+        <v>0.26661950789893329</v>
+      </c>
+      <c r="P55">
+        <v>0.68959432991700309</v>
+      </c>
+      <c r="Q55" s="4">
+        <f t="shared" si="7"/>
+        <v>12.666195078989333</v>
+      </c>
+      <c r="R55" s="4">
+        <f t="shared" si="9"/>
+        <v>-21.895943299170032</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1773,21 +3771,61 @@
         <v>5</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>D#5</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="3"/>
+      <c r="D56" s="10">
+        <f t="shared" si="12"/>
         <v>622.25396744416196</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="7">
         <v>600</v>
       </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="13">
+        <v>63</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56" s="11">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="I56" s="11">
+        <f t="shared" si="8"/>
+        <v>604.9236617541352</v>
+      </c>
+      <c r="J56" s="11">
+        <f t="shared" si="10"/>
+        <v>606.00131702743022</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="6"/>
+        <v>0.96423651979983727</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.66970221502585592</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0.91897761332231853</v>
+      </c>
+      <c r="O56">
+        <v>0.41487109760651852</v>
+      </c>
+      <c r="P56">
+        <v>0.22301140811523223</v>
+      </c>
+      <c r="Q56" s="4">
+        <f t="shared" si="7"/>
+        <v>14.148710976065185</v>
+      </c>
+      <c r="R56" s="4">
+        <f t="shared" si="9"/>
+        <v>17.230114081152323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -1795,18 +3833,61 @@
         <v>5</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>E5</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="3"/>
+      <c r="D57" s="10">
+        <f t="shared" si="12"/>
         <v>659.25511382574007</v>
       </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="7">
+        <v>635.20000000000005</v>
+      </c>
+      <c r="F57" s="13">
+        <v>64</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="4"/>
+        <v>635.20000000000005</v>
+      </c>
+      <c r="I57" s="11">
+        <f t="shared" si="8"/>
+        <v>639.67843670273987</v>
+      </c>
+      <c r="J57" s="11">
+        <f t="shared" si="10"/>
+        <v>641.16239539721641</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="6"/>
+        <v>0.96351167655546088</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.78956044038328421</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0.29246561980543551</v>
+      </c>
+      <c r="O57">
+        <v>0.21631267342815119</v>
+      </c>
+      <c r="P57">
+        <v>0.1174680557994332</v>
+      </c>
+      <c r="Q57" s="4">
+        <f t="shared" si="7"/>
+        <v>12.163126734281512</v>
+      </c>
+      <c r="R57" s="4">
+        <f t="shared" si="9"/>
+        <v>16.174680557994332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1814,18 +3895,61 @@
         <v>5</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F5</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="3"/>
+      <c r="D58" s="10">
+        <f t="shared" si="12"/>
         <v>698.456462866008</v>
       </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="7">
+        <v>671.2</v>
+      </c>
+      <c r="F58" s="13">
+        <v>65</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="4"/>
+        <v>671.2</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" si="8"/>
+        <v>675.56829924093677</v>
+      </c>
+      <c r="J58" s="11">
+        <f t="shared" si="10"/>
+        <v>677.92698452923946</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="6"/>
+        <v>0.96097614623799843</v>
+      </c>
+      <c r="M58">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.78363713904584875</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0.74772967135635671</v>
+      </c>
+      <c r="O58">
+        <v>0.12306993082745421</v>
+      </c>
+      <c r="P58">
+        <v>0.22646182509401325</v>
+      </c>
+      <c r="Q58" s="4">
+        <f t="shared" si="7"/>
+        <v>11.230699308274541</v>
+      </c>
+      <c r="R58" s="4">
+        <f t="shared" si="9"/>
+        <v>17.264618250940131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -1833,18 +3957,61 @@
         <v>5</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>F#5</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="3"/>
+      <c r="D59" s="10">
+        <f t="shared" si="12"/>
         <v>739.98884542326903</v>
       </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="7">
+        <v>705.8</v>
+      </c>
+      <c r="F59" s="13">
+        <v>66</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" si="4"/>
+        <v>705.8</v>
+      </c>
+      <c r="I59" s="11">
+        <f t="shared" si="8"/>
+        <v>698.4203413721491</v>
+      </c>
+      <c r="J59" s="11">
+        <f t="shared" si="10"/>
+        <v>696.53656378570349</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="6"/>
+        <v>0.95379816110104565</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.8569611962468684</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0.69621562359731126</v>
+      </c>
+      <c r="O59">
+        <v>0.81966227525643343</v>
+      </c>
+      <c r="P59">
+        <v>0.7872411472510179</v>
+      </c>
+      <c r="Q59" s="4">
+        <f t="shared" si="7"/>
+        <v>-18.196622752564334</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" si="9"/>
+        <v>-22.87241147251018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -1852,18 +4019,61 @@
         <v>5</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G5</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="3"/>
+      <c r="D60" s="10">
+        <f t="shared" si="12"/>
         <v>783.99087196349888</v>
       </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="7">
+        <v>755.9</v>
+      </c>
+      <c r="F60" s="13">
+        <v>67</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="4"/>
+        <v>755.9</v>
+      </c>
+      <c r="I60" s="11">
+        <f t="shared" si="8"/>
+        <v>760.72693659521951</v>
+      </c>
+      <c r="J60" s="11">
+        <f t="shared" si="10"/>
+        <v>746.95568821622533</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="6"/>
+        <v>0.96416938899665305</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.3564260943347106E-2</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0.20909957463594775</v>
+      </c>
+      <c r="O60">
+        <v>0.10199614692644388</v>
+      </c>
+      <c r="P60">
+        <v>0.56072746146168517</v>
+      </c>
+      <c r="Q60" s="4">
+        <f t="shared" si="7"/>
+        <v>11.019961469264439</v>
+      </c>
+      <c r="R60" s="4">
+        <f t="shared" si="9"/>
+        <v>-20.607274614616852</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1871,18 +4081,61 @@
         <v>5</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>G#5</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="3"/>
+      <c r="D61" s="10">
+        <f t="shared" si="12"/>
         <v>830.6093951598906</v>
       </c>
-      <c r="F61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="7">
+        <v>800</v>
+      </c>
+      <c r="F61" s="13">
+        <v>68</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="I61" s="11">
+        <f t="shared" si="8"/>
+        <v>792.94951413091951</v>
+      </c>
+      <c r="J61" s="11">
+        <f t="shared" si="10"/>
+        <v>790.25181839533423</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="6"/>
+        <v>0.96314826759935901</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.47283574867453626</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0.79346297452888637</v>
+      </c>
+      <c r="O61">
+        <v>0.5325182370257604</v>
+      </c>
+      <c r="P61">
+        <v>0.62250602134010591</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" si="7"/>
+        <v>-15.325182370257604</v>
+      </c>
+      <c r="R61" s="4">
+        <f t="shared" si="9"/>
+        <v>-21.225060213401058</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1890,18 +4143,61 @@
         <v>5</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A5</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="3"/>
+      <c r="D62" s="10">
+        <f t="shared" si="12"/>
         <v>880.00000000000034</v>
       </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="7">
+        <v>847.1</v>
+      </c>
+      <c r="F62" s="13">
+        <v>69</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="4"/>
+        <v>847.1</v>
+      </c>
+      <c r="I62" s="11">
+        <f t="shared" si="8"/>
+        <v>853.38624963015968</v>
+      </c>
+      <c r="J62" s="11">
+        <f t="shared" si="10"/>
+        <v>856.49944519661392</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="6"/>
+        <v>0.96261363636363606</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15064503285698461</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0.31149909990883551</v>
+      </c>
+      <c r="O62">
+        <v>0.27998905942204111</v>
+      </c>
+      <c r="P62">
+        <v>0.41040267571065558</v>
+      </c>
+      <c r="Q62" s="4">
+        <f t="shared" si="7"/>
+        <v>12.799890594220411</v>
+      </c>
+      <c r="R62" s="4">
+        <f t="shared" si="9"/>
+        <v>19.104026757106556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1909,18 +4205,61 @@
         <v>5</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A#5</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="3"/>
+      <c r="D63" s="10">
+        <f t="shared" si="12"/>
         <v>932.3275230361802</v>
       </c>
-      <c r="F63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="7">
+        <v>905.7</v>
+      </c>
+      <c r="F63" s="13">
+        <v>70</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="4"/>
+        <v>905.7</v>
+      </c>
+      <c r="I63" s="11">
+        <f t="shared" si="8"/>
+        <v>897.76742064243354</v>
+      </c>
+      <c r="J63" s="11">
+        <f t="shared" si="10"/>
+        <v>914.47614573938517</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="6"/>
+        <v>0.97143973294978359</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.83118432774567241</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0.48031537986172113</v>
+      </c>
+      <c r="O63">
+        <v>0.5229817727110555</v>
+      </c>
+      <c r="P63">
+        <v>0.16947359457334521</v>
+      </c>
+      <c r="Q63" s="4">
+        <f t="shared" si="7"/>
+        <v>-15.229817727110555</v>
+      </c>
+      <c r="R63" s="4">
+        <f t="shared" si="9"/>
+        <v>16.694735945733452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1928,18 +4267,61 @@
         <v>5</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B5</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="3"/>
+      <c r="D64" s="10">
+        <f t="shared" si="12"/>
         <v>987.7666025122486</v>
       </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="7">
+        <v>947.4</v>
+      </c>
+      <c r="F64" s="13">
+        <v>71</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="4"/>
+        <v>947.4</v>
+      </c>
+      <c r="I64" s="11">
+        <f t="shared" si="8"/>
+        <v>955.41152080899667</v>
+      </c>
+      <c r="J64" s="11">
+        <f t="shared" si="10"/>
+        <v>934.43596880992664</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="6"/>
+        <v>0.95913346087063311</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11157450195642737</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0.80102559709529053</v>
+      </c>
+      <c r="O64">
+        <v>0.45783220417559756</v>
+      </c>
+      <c r="P64">
+        <v>0.88534363705458041</v>
+      </c>
+      <c r="Q64" s="4">
+        <f t="shared" si="7"/>
+        <v>14.578322041755975</v>
+      </c>
+      <c r="R64" s="4">
+        <f t="shared" si="9"/>
+        <v>-23.853436370545804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1947,18 +4329,61 @@
         <v>6</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C6</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="3"/>
+      <c r="D65" s="10">
+        <f t="shared" si="12"/>
         <v>1046.5022612023949</v>
       </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="7">
+        <v>1021.2</v>
+      </c>
+      <c r="F65" s="13">
+        <v>72</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65" s="11">
+        <f t="shared" si="4"/>
+        <v>1021.2</v>
+      </c>
+      <c r="I65" s="11">
+        <f t="shared" si="8"/>
+        <v>1011.8602209400278</v>
+      </c>
+      <c r="J65" s="11">
+        <f t="shared" si="10"/>
+        <v>1030.3778599943366</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="6"/>
+        <v>0.97582206733760568</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.57834646522794808</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0.28828332955544012</v>
+      </c>
+      <c r="O65">
+        <v>0.59065207240841122</v>
+      </c>
+      <c r="P65">
+        <v>4.8966775791988493E-2</v>
+      </c>
+      <c r="Q65" s="4">
+        <f t="shared" si="7"/>
+        <v>-15.906520724084112</v>
+      </c>
+      <c r="R65" s="4">
+        <f t="shared" si="9"/>
+        <v>15.489667757919886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1966,18 +4391,61 @@
         <v>6</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C#6</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="3"/>
+      <c r="D66" s="10">
+        <f t="shared" si="12"/>
         <v>1108.7305239074888</v>
       </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="7">
+        <v>1066.8</v>
+      </c>
+      <c r="F66" s="13">
+        <v>73</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66" s="11">
+        <f t="shared" si="4"/>
+        <v>1066.8</v>
+      </c>
+      <c r="I66" s="11">
+        <f t="shared" si="8"/>
+        <v>1055.6706464470196</v>
+      </c>
+      <c r="J66" s="11">
+        <f t="shared" si="10"/>
+        <v>1077.8501927788029</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="6"/>
+        <v>0.96218150127254232</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.84508262240448895</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0.48899291055505756</v>
+      </c>
+      <c r="O66">
+        <v>0.81559094238566399</v>
+      </c>
+      <c r="P66">
+        <v>0.28403353091990091</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="7"/>
+        <v>-18.155909423856642</v>
+      </c>
+      <c r="R66" s="4">
+        <f t="shared" si="9"/>
+        <v>17.840335309199009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -1985,18 +4453,61 @@
         <v>6</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C86" si="4">_xlfn.CONCAT(A67,B67)</f>
+        <f t="shared" ref="C67:C86" si="13">_xlfn.CONCAT(A67,B67)</f>
         <v>D6</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="3"/>
+      <c r="D67" s="10">
+        <f t="shared" si="12"/>
         <v>1174.6590716696307</v>
       </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="7">
+        <v>1133.9000000000001</v>
+      </c>
+      <c r="F67" s="13">
+        <v>74</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67" s="11">
+        <f t="shared" ref="H67:H86" si="14">E67</f>
+        <v>1133.9000000000001</v>
+      </c>
+      <c r="I67" s="11">
+        <f t="shared" si="8"/>
+        <v>1140.6257512115737</v>
+      </c>
+      <c r="J67" s="11">
+        <f t="shared" si="10"/>
+        <v>1143.8164763418795</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="6"/>
+        <v>0.96530136049458437</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M72" ca="1" si="15">RAND()</f>
+        <v>0.71393714410640696</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0.80047770738788393</v>
+      </c>
+      <c r="O67">
+        <v>2.3851537767080933E-2</v>
+      </c>
+      <c r="P67">
+        <v>7.4615421897479273E-3</v>
+      </c>
+      <c r="Q67" s="4">
+        <f t="shared" ref="Q67:Q86" si="16">IF(O67&lt;0.5,1,-1)*(10+10*O67)</f>
+        <v>10.23851537767081</v>
+      </c>
+      <c r="R67" s="4">
+        <f t="shared" ref="R67:R86" si="17">IF(P67&lt;0.5,1,-1)*(15+10*P67)</f>
+        <v>15.07461542189748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2004,18 +4515,61 @@
         <v>6</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>D#6</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="3"/>
+      <c r="D68" s="10">
+        <f t="shared" si="12"/>
         <v>1244.5079348883241</v>
       </c>
-      <c r="F68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="7">
+        <v>1200</v>
+      </c>
+      <c r="F68" s="13">
+        <v>75</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="14"/>
+        <v>1200</v>
+      </c>
+      <c r="I68" s="11">
+        <f t="shared" si="8"/>
+        <v>1210.3892588760937</v>
+      </c>
+      <c r="J68" s="11">
+        <f t="shared" si="10"/>
+        <v>1186.2031412174931</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="6"/>
+        <v>0.96423651979983716</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.25805081030714794</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0.46632345703033884</v>
+      </c>
+      <c r="O68">
+        <v>0.49240211120064836</v>
+      </c>
+      <c r="P68">
+        <v>0.50199701844028</v>
+      </c>
+      <c r="Q68" s="4">
+        <f t="shared" si="16"/>
+        <v>14.924021112006484</v>
+      </c>
+      <c r="R68" s="4">
+        <f t="shared" si="17"/>
+        <v>-20.019970184402801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -2023,18 +4577,61 @@
         <v>6</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>E6</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="3"/>
+      <c r="D69" s="10">
+        <f t="shared" si="12"/>
         <v>1318.5102276514804</v>
       </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="7">
+        <v>1288.5999999999999</v>
+      </c>
+      <c r="F69" s="13">
+        <v>76</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69" s="11">
+        <f t="shared" si="14"/>
+        <v>1288.5999999999999</v>
+      </c>
+      <c r="I69" s="11">
+        <f t="shared" si="8"/>
+        <v>1298.9856306331521</v>
+      </c>
+      <c r="J69" s="11">
+        <f t="shared" si="10"/>
+        <v>1272.9672885170348</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="6"/>
+        <v>0.97731513413835525</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.84915831308132106</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0.74207184365936485</v>
+      </c>
+      <c r="O69">
+        <v>0.38971663077040186</v>
+      </c>
+      <c r="P69">
+        <v>0.6130983766892707</v>
+      </c>
+      <c r="Q69" s="4">
+        <f t="shared" si="16"/>
+        <v>13.897166307704019</v>
+      </c>
+      <c r="R69" s="4">
+        <f t="shared" si="17"/>
+        <v>-21.130983766892708</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -2042,18 +4639,61 @@
         <v>6</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>F6</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="3"/>
+      <c r="D70" s="10">
+        <f t="shared" si="12"/>
         <v>1396.9129257320162</v>
       </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="7">
+        <v>1361.72</v>
+      </c>
+      <c r="F70" s="13">
+        <v>77</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70" s="11">
+        <f t="shared" si="14"/>
+        <v>1361.72</v>
+      </c>
+      <c r="I70" s="11">
+        <f t="shared" si="8"/>
+        <v>1372.2369988781941</v>
+      </c>
+      <c r="J70" s="11">
+        <f t="shared" si="10"/>
+        <v>1343.5383189372324</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="6"/>
+        <v>0.97480664321752608</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ca="1" si="15"/>
+        <v>4.553528136569851E-2</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0.96530053340657029</v>
+      </c>
+      <c r="O70">
+        <v>0.33195045647023369</v>
+      </c>
+      <c r="P70">
+        <v>0.82711375864112258</v>
+      </c>
+      <c r="Q70" s="4">
+        <f t="shared" si="16"/>
+        <v>13.319504564702337</v>
+      </c>
+      <c r="R70" s="4">
+        <f t="shared" si="17"/>
+        <v>-23.271137586411225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2061,18 +4701,61 @@
         <v>6</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>F#6</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="3"/>
+      <c r="D71" s="10">
+        <f t="shared" si="12"/>
         <v>1479.9776908465383</v>
       </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="7">
+        <v>1454.6</v>
+      </c>
+      <c r="F71" s="13">
+        <v>78</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71" s="11">
+        <f t="shared" si="14"/>
+        <v>1454.6</v>
+      </c>
+      <c r="I71" s="11">
+        <f t="shared" si="8"/>
+        <v>1466.3075781741125</v>
+      </c>
+      <c r="J71" s="11">
+        <f t="shared" si="10"/>
+        <v>1437.5162883653702</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="6"/>
+        <v>0.98285265311531655</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.93147627820709455</v>
+      </c>
+      <c r="N71" s="7">
+        <v>0.12934481239966189</v>
+      </c>
+      <c r="O71">
+        <v>0.38783347081595376</v>
+      </c>
+      <c r="P71">
+        <v>0.54530138608784051</v>
+      </c>
+      <c r="Q71" s="4">
+        <f t="shared" si="16"/>
+        <v>13.878334708159539</v>
+      </c>
+      <c r="R71" s="4">
+        <f t="shared" si="17"/>
+        <v>-20.453013860878407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2080,18 +4763,61 @@
         <v>6</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>G6</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="3"/>
+      <c r="D72" s="10">
+        <f t="shared" si="12"/>
         <v>1567.981743926998</v>
       </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="7">
+        <v>1536</v>
+      </c>
+      <c r="F72" s="13">
+        <v>79</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72" s="11">
+        <f t="shared" si="14"/>
+        <v>1536</v>
+      </c>
+      <c r="I72" s="11">
+        <f t="shared" si="8"/>
+        <v>1547.7238119721187</v>
+      </c>
+      <c r="J72" s="11">
+        <f t="shared" si="10"/>
+        <v>1516.2904723844406</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="6"/>
+        <v>0.97960324216090677</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.27893429398140956</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0.14921015862555653</v>
+      </c>
+      <c r="O72">
+        <v>0.31637990289937701</v>
+      </c>
+      <c r="P72">
+        <v>0.73584746433264214</v>
+      </c>
+      <c r="Q72" s="4">
+        <f t="shared" si="16"/>
+        <v>13.16379902899377</v>
+      </c>
+      <c r="R72" s="4">
+        <f t="shared" si="17"/>
+        <v>-22.358474643326421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -2099,18 +4825,62 @@
         <v>6</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>G#6</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="3"/>
+      <c r="D73" s="10">
+        <f t="shared" si="12"/>
         <v>1661.2187903197814</v>
       </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="8">
+        <f>D73*(0.97+(N73-0.5)*0.03)</f>
+        <v>1590.5065891261613</v>
+      </c>
+      <c r="F73" s="13">
+        <v>80</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73" s="11">
+        <f t="shared" si="14"/>
+        <v>1590.5065891261613</v>
+      </c>
+      <c r="I73" s="11">
+        <f t="shared" si="8"/>
+        <v>1575.3706469141007</v>
+      </c>
+      <c r="J73" s="11">
+        <f t="shared" si="10"/>
+        <v>1605.9410056308957</v>
+      </c>
+      <c r="L73" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95743354120139212</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ref="M73:M86" ca="1" si="18">RAND()</f>
+        <v>0.87585954797346188</v>
+      </c>
+      <c r="N73" s="7">
+        <v>8.1118040046405104E-2</v>
+      </c>
+      <c r="O73">
+        <v>0.65540583059682622</v>
+      </c>
+      <c r="P73">
+        <v>0.17190571779802499</v>
+      </c>
+      <c r="Q73" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.554058305968262</v>
+      </c>
+      <c r="R73" s="4">
+        <f t="shared" si="17"/>
+        <v>16.71905717798025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2118,18 +4888,62 @@
         <v>6</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>A6</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="3"/>
+      <c r="D74" s="10">
+        <f t="shared" si="12"/>
         <v>1760.0000000000009</v>
       </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="8">
+        <f t="shared" ref="E74:E86" si="19">D74*(0.97+(N74-0.5)*0.03)</f>
+        <v>1690.2702899020896</v>
+      </c>
+      <c r="F74" s="13">
+        <v>81</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74" s="11">
+        <f t="shared" si="14"/>
+        <v>1690.2702899020896</v>
+      </c>
+      <c r="I74" s="11">
+        <f t="shared" si="8"/>
+        <v>1675.6702566268534</v>
+      </c>
+      <c r="J74" s="11">
+        <f t="shared" si="10"/>
+        <v>1667.7485133409089</v>
+      </c>
+      <c r="L74" s="3">
+        <f t="shared" si="6"/>
+        <v>0.96038084653527767</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.75808963133160756</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0.17936155117592445</v>
+      </c>
+      <c r="O74">
+        <v>0.50188233545192706</v>
+      </c>
+      <c r="P74">
+        <v>0.82226520171639494</v>
+      </c>
+      <c r="Q74" s="4">
+        <f t="shared" si="16"/>
+        <v>-15.01882335451927</v>
+      </c>
+      <c r="R74" s="4">
+        <f t="shared" si="17"/>
+        <v>-23.222652017163949</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2137,18 +4951,62 @@
         <v>6</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>A#6</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="3"/>
+      <c r="D75" s="10">
+        <f t="shared" si="12"/>
         <v>1864.6550460723606</v>
       </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="8">
+        <f t="shared" si="19"/>
+        <v>1802.7002832270318</v>
+      </c>
+      <c r="F75" s="13">
+        <v>82</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75" s="11">
+        <f t="shared" si="14"/>
+        <v>1802.7002832270318</v>
+      </c>
+      <c r="I75" s="11">
+        <f t="shared" si="8"/>
+        <v>1817.3027727823496</v>
+      </c>
+      <c r="J75" s="11">
+        <f t="shared" si="10"/>
+        <v>1819.991239538607</v>
+      </c>
+      <c r="L75" s="3">
+        <f t="shared" si="6"/>
+        <v>0.96677414250114091</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.43471890677805147</v>
+      </c>
+      <c r="N75" s="7">
+        <v>0.39247141670469787</v>
+      </c>
+      <c r="O75">
+        <v>0.39670955236321814</v>
+      </c>
+      <c r="P75">
+        <v>0.15263420514367654</v>
+      </c>
+      <c r="Q75" s="4">
+        <f t="shared" si="16"/>
+        <v>13.967095523632182</v>
+      </c>
+      <c r="R75" s="4">
+        <f t="shared" si="17"/>
+        <v>16.526342051436764</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2156,18 +5014,62 @@
         <v>6</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>B6</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="3"/>
+      <c r="D76" s="10">
+        <f t="shared" si="12"/>
         <v>1975.5332050244976</v>
       </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="8">
+        <f t="shared" si="19"/>
+        <v>1913.4616492138862</v>
+      </c>
+      <c r="F76" s="13">
+        <v>83</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="14"/>
+        <v>1913.4616492138862</v>
+      </c>
+      <c r="I76" s="11">
+        <f t="shared" si="8"/>
+        <v>1893.0340833868459</v>
+      </c>
+      <c r="J76" s="11">
+        <f t="shared" si="10"/>
+        <v>1886.6555790256812</v>
+      </c>
+      <c r="L76" s="3">
+        <f t="shared" ref="L76:L86" si="20">E76/D76</f>
+        <v>0.96857984687235776</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.69796014017768948</v>
+      </c>
+      <c r="N76" s="7">
+        <v>0.45266156241192723</v>
+      </c>
+      <c r="O76">
+        <v>0.85815193210635365</v>
+      </c>
+      <c r="P76">
+        <v>0.94246945027924911</v>
+      </c>
+      <c r="Q76" s="4">
+        <f t="shared" si="16"/>
+        <v>-18.581519321063539</v>
+      </c>
+      <c r="R76" s="4">
+        <f t="shared" si="17"/>
+        <v>-24.424694502792491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2175,18 +5077,62 @@
         <v>7</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>C7</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="3"/>
+      <c r="D77" s="10">
+        <f t="shared" si="12"/>
         <v>2093.0045224047904</v>
       </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="8">
+        <f t="shared" si="19"/>
+        <v>2009.0757946010417</v>
+      </c>
+      <c r="F77" s="13">
+        <v>84</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" si="14"/>
+        <v>2009.0757946010417</v>
+      </c>
+      <c r="I77" s="11">
+        <f t="shared" si="8"/>
+        <v>1990.4277053521489</v>
+      </c>
+      <c r="J77" s="11">
+        <f t="shared" si="10"/>
+        <v>1983.6033140940463</v>
+      </c>
+      <c r="L77" s="3">
+        <f t="shared" si="20"/>
+        <v>0.95990036003012669</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.2967084358170281</v>
+      </c>
+      <c r="N77" s="7">
+        <v>0.16334533433755671</v>
+      </c>
+      <c r="O77">
+        <v>0.61442244080580966</v>
+      </c>
+      <c r="P77">
+        <v>0.70901418233504243</v>
+      </c>
+      <c r="Q77" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.144224408058097</v>
+      </c>
+      <c r="R77" s="4">
+        <f t="shared" si="17"/>
+        <v>-22.090141823350425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2194,18 +5140,62 @@
         <v>7</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>C#7</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="3"/>
+      <c r="D78" s="10">
+        <f t="shared" si="12"/>
         <v>2217.4610478149784</v>
       </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="8">
+        <f t="shared" si="19"/>
+        <v>2152.579553919622</v>
+      </c>
+      <c r="F78" s="13">
+        <v>85</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="14"/>
+        <v>2152.579553919622</v>
+      </c>
+      <c r="I78" s="11">
+        <f t="shared" si="8"/>
+        <v>2170.5688663925139</v>
+      </c>
+      <c r="J78" s="11">
+        <f t="shared" si="10"/>
+        <v>2122.0314589342443</v>
+      </c>
+      <c r="L78" s="3">
+        <f t="shared" si="20"/>
+        <v>0.97074063873217131</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.86051208612595032</v>
+      </c>
+      <c r="N78" s="7">
+        <v>0.52468795773904264</v>
+      </c>
+      <c r="O78">
+        <v>0.4407967064767444</v>
+      </c>
+      <c r="P78">
+        <v>0.97446152900437422</v>
+      </c>
+      <c r="Q78" s="4">
+        <f t="shared" si="16"/>
+        <v>14.407967064767444</v>
+      </c>
+      <c r="R78" s="4">
+        <f t="shared" si="17"/>
+        <v>-24.74461529004374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -2213,18 +5203,62 @@
         <v>7</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>D7</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="3"/>
+      <c r="D79" s="10">
+        <f t="shared" si="12"/>
         <v>2349.3181433392624</v>
       </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="8">
+        <f t="shared" si="19"/>
+        <v>2288.1793055165981</v>
+      </c>
+      <c r="F79" s="13">
+        <v>86</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79" s="11">
+        <f t="shared" si="14"/>
+        <v>2288.1793055165981</v>
+      </c>
+      <c r="I79" s="11">
+        <f t="shared" si="8"/>
+        <v>2266.0759749443991</v>
+      </c>
+      <c r="J79" s="11">
+        <f t="shared" si="10"/>
+        <v>2258.8610213468801</v>
+      </c>
+      <c r="L79" s="3">
+        <f t="shared" si="20"/>
+        <v>0.97397592233474051</v>
+      </c>
+      <c r="M79">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.2790378929751639</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0.63253074449134639</v>
+      </c>
+      <c r="O79">
+        <v>0.68046526084290893</v>
+      </c>
+      <c r="P79">
+        <v>0.73255179491770073</v>
+      </c>
+      <c r="Q79" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.804652608429087</v>
+      </c>
+      <c r="R79" s="4">
+        <f t="shared" si="17"/>
+        <v>-22.325517949177005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -2232,18 +5266,62 @@
         <v>7</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>D#7</v>
       </c>
-      <c r="D80">
-        <f t="shared" si="3"/>
+      <c r="D80" s="10">
+        <f t="shared" si="12"/>
         <v>2489.0158697766497</v>
       </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="8">
+        <f t="shared" si="19"/>
+        <v>2428.754050501625</v>
+      </c>
+      <c r="F80" s="13">
+        <v>87</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80" s="11">
+        <f t="shared" si="14"/>
+        <v>2428.754050501625</v>
+      </c>
+      <c r="I80" s="11">
+        <f t="shared" ref="I80:I86" si="21">H80*POWER(2,Q80/1200)</f>
+        <v>2407.0639565530878</v>
+      </c>
+      <c r="J80" s="11">
+        <f t="shared" si="10"/>
+        <v>2394.7619462589869</v>
+      </c>
+      <c r="L80" s="3">
+        <f t="shared" si="20"/>
+        <v>0.97578889712726813</v>
+      </c>
+      <c r="M80">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.77003222666615934</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0.69296323757560652</v>
+      </c>
+      <c r="O80">
+        <v>0.55303119070566076</v>
+      </c>
+      <c r="P80">
+        <v>0.94009815733479474</v>
+      </c>
+      <c r="Q80" s="4">
+        <f t="shared" si="16"/>
+        <v>-15.530311907056607</v>
+      </c>
+      <c r="R80" s="4">
+        <f t="shared" si="17"/>
+        <v>-24.400981573347948</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -2251,18 +5329,62 @@
         <v>7</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>E7</v>
       </c>
-      <c r="D81">
-        <f t="shared" si="3"/>
+      <c r="D81" s="10">
+        <f t="shared" si="12"/>
         <v>2637.0204553029621</v>
       </c>
-      <c r="F81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="8">
+        <f t="shared" si="19"/>
+        <v>2541.7631271921573</v>
+      </c>
+      <c r="F81" s="13">
+        <v>88</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81" s="11">
+        <f t="shared" si="14"/>
+        <v>2541.7631271921573</v>
+      </c>
+      <c r="I81" s="11">
+        <f t="shared" si="21"/>
+        <v>2561.5908935001835</v>
+      </c>
+      <c r="J81" s="11">
+        <f t="shared" si="10"/>
+        <v>2571.2170911250896</v>
+      </c>
+      <c r="L81" s="3">
+        <f t="shared" si="20"/>
+        <v>0.96387690966930295</v>
+      </c>
+      <c r="M81">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.23307429674518765</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0.29589698897676608</v>
+      </c>
+      <c r="O81">
+        <v>0.34525947964900594</v>
+      </c>
+      <c r="P81">
+        <v>0.49462024590544684</v>
+      </c>
+      <c r="Q81" s="4">
+        <f t="shared" si="16"/>
+        <v>13.452594796490059</v>
+      </c>
+      <c r="R81" s="4">
+        <f t="shared" si="17"/>
+        <v>19.946202459054469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -2270,18 +5392,62 @@
         <v>7</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>F7</v>
       </c>
-      <c r="D82">
-        <f t="shared" si="3"/>
+      <c r="D82" s="10">
+        <f t="shared" si="12"/>
         <v>2793.8258514640338</v>
       </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="8">
+        <f t="shared" si="19"/>
+        <v>2733.0735669920664</v>
+      </c>
+      <c r="F82" s="13">
+        <v>89</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82" s="11">
+        <f t="shared" si="14"/>
+        <v>2733.0735669920664</v>
+      </c>
+      <c r="I82" s="11">
+        <f t="shared" si="21"/>
+        <v>2706.5670942150778</v>
+      </c>
+      <c r="J82" s="11">
+        <f t="shared" si="10"/>
+        <v>2696.7470647435116</v>
+      </c>
+      <c r="L82" s="3">
+        <f t="shared" si="20"/>
+        <v>0.97825480623993377</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.75014099611025808</v>
+      </c>
+      <c r="N82" s="7">
+        <v>0.77516020799779406</v>
+      </c>
+      <c r="O82">
+        <v>0.68721701519868417</v>
+      </c>
+      <c r="P82">
+        <v>0.81648962832494132</v>
+      </c>
+      <c r="Q82" s="4">
+        <f t="shared" si="16"/>
+        <v>-16.872170151986843</v>
+      </c>
+      <c r="R82" s="4">
+        <f t="shared" si="17"/>
+        <v>-23.164896283249412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -2289,18 +5455,62 @@
         <v>7</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>F#7</v>
       </c>
-      <c r="D83">
-        <f t="shared" si="3"/>
+      <c r="D83" s="10">
+        <f t="shared" si="12"/>
         <v>2959.9553816930784</v>
       </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="8">
+        <f t="shared" si="19"/>
+        <v>2868.128608396134</v>
+      </c>
+      <c r="F83" s="13">
+        <v>90</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83" s="11">
+        <f t="shared" si="14"/>
+        <v>2868.128608396134</v>
+      </c>
+      <c r="I83" s="11">
+        <f t="shared" si="21"/>
+        <v>2837.2947461609378</v>
+      </c>
+      <c r="J83" s="11">
+        <f t="shared" si="10"/>
+        <v>2828.9522276493485</v>
+      </c>
+      <c r="L83" s="3">
+        <f t="shared" si="20"/>
+        <v>0.96897697382032155</v>
+      </c>
+      <c r="M83">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.93675223011444908</v>
+      </c>
+      <c r="N83" s="7">
+        <v>0.4658991273440577</v>
+      </c>
+      <c r="O83">
+        <v>0.87124244934862749</v>
+      </c>
+      <c r="P83">
+        <v>0.88102829543075722</v>
+      </c>
+      <c r="Q83" s="4">
+        <f t="shared" si="16"/>
+        <v>-18.712424493486274</v>
+      </c>
+      <c r="R83" s="4">
+        <f t="shared" si="17"/>
+        <v>-23.810282954307574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2308,18 +5518,62 @@
         <v>7</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>G7</v>
       </c>
-      <c r="D84">
-        <f t="shared" si="3"/>
+      <c r="D84" s="10">
+        <f t="shared" si="12"/>
         <v>3135.9634878539978</v>
       </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="8">
+        <f t="shared" si="19"/>
+        <v>3062.8807130598752</v>
+      </c>
+      <c r="F84" s="13">
+        <v>91</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84" s="11">
+        <f t="shared" si="14"/>
+        <v>3062.8807130598752</v>
+      </c>
+      <c r="I84" s="11">
+        <f t="shared" si="21"/>
+        <v>3028.6609711502692</v>
+      </c>
+      <c r="J84" s="11">
+        <f t="shared" si="10"/>
+        <v>3022.0079907139234</v>
+      </c>
+      <c r="L84" s="3">
+        <f t="shared" si="20"/>
+        <v>0.97669527241717524</v>
+      </c>
+      <c r="M84">
+        <f t="shared" ca="1" si="18"/>
+        <v>5.8306383940534889E-2</v>
+      </c>
+      <c r="N84" s="7">
+        <v>0.72317574723917522</v>
+      </c>
+      <c r="O84">
+        <v>0.94509070453928978</v>
+      </c>
+      <c r="P84">
+        <v>0.82580467099385457</v>
+      </c>
+      <c r="Q84" s="4">
+        <f t="shared" si="16"/>
+        <v>-19.450907045392896</v>
+      </c>
+      <c r="R84" s="4">
+        <f t="shared" si="17"/>
+        <v>-23.258046709938547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -2327,18 +5581,62 @@
         <v>7</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>G#7</v>
       </c>
-      <c r="D85">
-        <f t="shared" si="3"/>
+      <c r="D85" s="10">
+        <f t="shared" si="12"/>
         <v>3322.4375806395647</v>
       </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="8">
+        <f t="shared" si="19"/>
+        <v>3259.6497334696382</v>
+      </c>
+      <c r="F85" s="13">
+        <v>92</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85" s="11">
+        <f t="shared" si="14"/>
+        <v>3259.6497334696382</v>
+      </c>
+      <c r="I85" s="11">
+        <f t="shared" si="21"/>
+        <v>3223.0250971803321</v>
+      </c>
+      <c r="J85" s="11">
+        <f t="shared" si="10"/>
+        <v>3216.8059294617797</v>
+      </c>
+      <c r="L85" s="3">
+        <f t="shared" si="20"/>
+        <v>0.98110187305374752</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.75155605234550582</v>
+      </c>
+      <c r="N85" s="7">
+        <v>0.87006243512491854</v>
+      </c>
+      <c r="O85">
+        <v>0.95618301542345929</v>
+      </c>
+      <c r="P85">
+        <v>0.79056564794531936</v>
+      </c>
+      <c r="Q85" s="4">
+        <f t="shared" si="16"/>
+        <v>-19.561830154234592</v>
+      </c>
+      <c r="R85" s="4">
+        <f t="shared" si="17"/>
+        <v>-22.905656479453192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2346,15 +5644,59 @@
         <v>7</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>A7</v>
       </c>
-      <c r="D86">
-        <f t="shared" si="3"/>
+      <c r="D86" s="10">
+        <f t="shared" si="12"/>
         <v>3520.0000000000041</v>
       </c>
-      <c r="F86">
-        <v>3</v>
+      <c r="E86" s="8">
+        <f t="shared" si="19"/>
+        <v>3454.1176572876311</v>
+      </c>
+      <c r="F86" s="13">
+        <v>93</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86" s="11">
+        <f t="shared" si="14"/>
+        <v>3454.1176572876311</v>
+      </c>
+      <c r="I86" s="11">
+        <f t="shared" si="21"/>
+        <v>3474.1300857136812</v>
+      </c>
+      <c r="J86" s="11">
+        <f t="shared" si="10"/>
+        <v>3490.6214577107994</v>
+      </c>
+      <c r="L86" s="3">
+        <f t="shared" si="20"/>
+        <v>0.98128342536580315</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.7095419407886232</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0.87611417886010456</v>
+      </c>
+      <c r="O86">
+        <v>1.4592835587867725E-4</v>
+      </c>
+      <c r="P86">
+        <v>0.32000225479285205</v>
+      </c>
+      <c r="Q86" s="4">
+        <f t="shared" si="16"/>
+        <v>10.001459283558788</v>
+      </c>
+      <c r="R86" s="4">
+        <f t="shared" si="17"/>
+        <v>18.200022547928519</v>
       </c>
     </row>
   </sheetData>
